--- a/logfc_Analysis/logfc_WS_HC/meta_wsflt_t.xlsx
+++ b/logfc_Analysis/logfc_WS_HC/meta_wsflt_t.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_WS_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{863A4129-530B-4175-B9B3-A6EA29DC2AEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F699005-6CEE-4692-ADAE-4162A8EF455C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C172C13A-9DC2-40FA-838E-5FBA79180F55}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="559">
   <si>
     <t>TAIR</t>
   </si>
@@ -1681,6 +1681,46 @@
   </si>
   <si>
     <t>GO:0005886, GO:0016020, GO:0044464</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic reticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plastid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2044,15 +2084,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379657B5-4DD6-456F-B94F-9E9D7A983ECE}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2063,19 +2103,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2086,19 +2129,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839301</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2109,19 +2155,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>839565</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2132,19 +2181,22 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>839520</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2155,19 +2207,22 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>837035</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2178,19 +2233,22 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>837340</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2201,19 +2259,22 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>837791</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2224,19 +2285,22 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>837958</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2247,19 +2311,22 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>838158</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
       <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2270,19 +2337,22 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>838349</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2293,19 +2363,22 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
+        <v>551</v>
+      </c>
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>839749</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2316,19 +2389,22 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>839807</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2339,19 +2415,22 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>554</v>
+      </c>
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>839974</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2362,19 +2441,22 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
+        <v>555</v>
+      </c>
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>841164</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2385,19 +2467,22 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
+        <v>555</v>
+      </c>
+      <c r="E15" t="s">
         <v>82</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>841244</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -2408,19 +2493,22 @@
         <v>87</v>
       </c>
       <c r="D16" t="s">
+        <v>551</v>
+      </c>
+      <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>841472</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -2431,19 +2519,22 @@
         <v>93</v>
       </c>
       <c r="D17" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" t="s">
         <v>94</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>841847</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>95</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -2454,19 +2545,22 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" t="s">
         <v>100</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>842113</v>
       </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
       <c r="G18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -2477,19 +2571,22 @@
         <v>103</v>
       </c>
       <c r="D19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>843468</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>105</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -2500,19 +2597,22 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
+        <v>555</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>843512</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>109</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2523,19 +2623,22 @@
         <v>113</v>
       </c>
       <c r="D21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E21" t="s">
         <v>114</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>843603</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>115</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -2546,19 +2649,22 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E22" t="s">
         <v>118</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>843918</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -2569,19 +2675,22 @@
         <v>59</v>
       </c>
       <c r="D23" t="s">
+        <v>554</v>
+      </c>
+      <c r="E23" t="s">
         <v>123</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>844297</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>124</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -2592,19 +2701,22 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>551</v>
+      </c>
+      <c r="E24" t="s">
         <v>127</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>815211</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>128</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -2615,19 +2727,22 @@
         <v>131</v>
       </c>
       <c r="D25" t="s">
+        <v>554</v>
+      </c>
+      <c r="E25" t="s">
         <v>132</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>815960</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>133</v>
       </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -2638,19 +2753,22 @@
         <v>136</v>
       </c>
       <c r="D26" t="s">
+        <v>551</v>
+      </c>
+      <c r="E26" t="s">
         <v>137</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>816289</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>138</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -2661,19 +2779,22 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E27" t="s">
         <v>142</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>816310</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>143</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -2684,19 +2805,22 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>550</v>
+      </c>
+      <c r="E28" t="s">
         <v>146</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>816466</v>
       </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
       <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -2707,19 +2831,22 @@
         <v>149</v>
       </c>
       <c r="D29" t="s">
+        <v>551</v>
+      </c>
+      <c r="E29" t="s">
         <v>150</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>816514</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>151</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -2730,16 +2857,19 @@
         <v>155</v>
       </c>
       <c r="D30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E30" t="s">
         <v>156</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>817306</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -2750,19 +2880,22 @@
         <v>160</v>
       </c>
       <c r="D31" t="s">
+        <v>550</v>
+      </c>
+      <c r="E31" t="s">
         <v>161</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>817851</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>162</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -2773,19 +2906,22 @@
         <v>166</v>
       </c>
       <c r="D32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E32" t="s">
         <v>167</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>818086</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>168</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -2796,19 +2932,22 @@
         <v>171</v>
       </c>
       <c r="D33" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" t="s">
         <v>172</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>818264</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>173</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2819,19 +2958,22 @@
         <v>176</v>
       </c>
       <c r="D34" t="s">
+        <v>551</v>
+      </c>
+      <c r="E34" t="s">
         <v>177</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>818331</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>178</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -2842,19 +2984,22 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>551</v>
+      </c>
+      <c r="E35" t="s">
         <v>182</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>818416</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>183</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -2865,19 +3010,22 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
+        <v>551</v>
+      </c>
+      <c r="E36" t="s">
         <v>186</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>818631</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>187</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>188</v>
       </c>
@@ -2888,19 +3036,22 @@
         <v>190</v>
       </c>
       <c r="D37" t="s">
+        <v>551</v>
+      </c>
+      <c r="E37" t="s">
         <v>191</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>818915</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>192</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -2911,19 +3062,22 @@
         <v>196</v>
       </c>
       <c r="D38" t="s">
+        <v>550</v>
+      </c>
+      <c r="E38" t="s">
         <v>197</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>821081</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>198</v>
       </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -2934,19 +3088,22 @@
         <v>201</v>
       </c>
       <c r="D39" t="s">
+        <v>550</v>
+      </c>
+      <c r="E39" t="s">
         <v>202</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>821079</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>203</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -2957,19 +3114,22 @@
         <v>207</v>
       </c>
       <c r="D40" t="s">
+        <v>551</v>
+      </c>
+      <c r="E40" t="s">
         <v>208</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>819740</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>209</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -2980,19 +3140,22 @@
         <v>212</v>
       </c>
       <c r="D41" t="s">
+        <v>552</v>
+      </c>
+      <c r="E41" t="s">
         <v>213</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>819896</v>
       </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
       <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>215</v>
       </c>
@@ -3003,19 +3166,22 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
+        <v>551</v>
+      </c>
+      <c r="E42" t="s">
         <v>217</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>820148</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>218</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -3026,19 +3192,22 @@
         <v>222</v>
       </c>
       <c r="D43" t="s">
+        <v>555</v>
+      </c>
+      <c r="E43" t="s">
         <v>223</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>820201</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>224</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -3049,19 +3218,22 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
+        <v>555</v>
+      </c>
+      <c r="E44" t="s">
         <v>228</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2745881</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>229</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>231</v>
       </c>
@@ -3072,19 +3244,22 @@
         <v>233</v>
       </c>
       <c r="D45" t="s">
+        <v>555</v>
+      </c>
+      <c r="E45" t="s">
         <v>234</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>820355</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>235</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>237</v>
       </c>
@@ -3095,16 +3270,19 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>555</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>240</v>
       </c>
@@ -3115,19 +3293,22 @@
         <v>242</v>
       </c>
       <c r="D47" t="s">
+        <v>551</v>
+      </c>
+      <c r="E47" t="s">
         <v>243</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>821377</v>
       </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
       <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -3138,19 +3319,22 @@
         <v>247</v>
       </c>
       <c r="D48" t="s">
+        <v>555</v>
+      </c>
+      <c r="E48" t="s">
         <v>248</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>821573</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>249</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -3161,19 +3345,22 @@
         <v>253</v>
       </c>
       <c r="D49" t="s">
+        <v>551</v>
+      </c>
+      <c r="E49" t="s">
         <v>254</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>822024</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>255</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>257</v>
       </c>
@@ -3184,19 +3371,22 @@
         <v>259</v>
       </c>
       <c r="D50" t="s">
+        <v>551</v>
+      </c>
+      <c r="E50" t="s">
         <v>260</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>822375</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>261</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>263</v>
       </c>
@@ -3207,19 +3397,22 @@
         <v>265</v>
       </c>
       <c r="D51" t="s">
+        <v>554</v>
+      </c>
+      <c r="E51" t="s">
         <v>266</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>822557</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>267</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -3230,19 +3423,22 @@
         <v>270</v>
       </c>
       <c r="D52" t="s">
+        <v>551</v>
+      </c>
+      <c r="E52" t="s">
         <v>271</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>823559</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>272</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>274</v>
       </c>
@@ -3253,19 +3449,22 @@
         <v>276</v>
       </c>
       <c r="D53" t="s">
+        <v>551</v>
+      </c>
+      <c r="E53" t="s">
         <v>277</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>824294</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>278</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -3276,19 +3475,22 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
+        <v>553</v>
+      </c>
+      <c r="E54" t="s">
         <v>281</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>824352</v>
       </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
       <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -3299,19 +3501,22 @@
         <v>285</v>
       </c>
       <c r="D55" t="s">
+        <v>552</v>
+      </c>
+      <c r="E55" t="s">
         <v>286</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>824384</v>
       </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
       <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>288</v>
       </c>
@@ -3322,19 +3527,22 @@
         <v>290</v>
       </c>
       <c r="D56" t="s">
+        <v>555</v>
+      </c>
+      <c r="E56" t="s">
         <v>291</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>824405</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>293</v>
       </c>
@@ -3345,19 +3553,22 @@
         <v>295</v>
       </c>
       <c r="D57" t="s">
+        <v>551</v>
+      </c>
+      <c r="E57" t="s">
         <v>296</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>824451</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>297</v>
       </c>
-      <c r="G57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>298</v>
       </c>
@@ -3368,19 +3579,22 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
+        <v>553</v>
+      </c>
+      <c r="E58" t="s">
         <v>300</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>824478</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="G58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>302</v>
       </c>
@@ -3391,19 +3605,22 @@
         <v>304</v>
       </c>
       <c r="D59" t="s">
+        <v>552</v>
+      </c>
+      <c r="E59" t="s">
         <v>305</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>824597</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>306</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>308</v>
       </c>
@@ -3414,19 +3631,22 @@
         <v>310</v>
       </c>
       <c r="D60" t="s">
+        <v>551</v>
+      </c>
+      <c r="E60" t="s">
         <v>311</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>824649</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>312</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>314</v>
       </c>
@@ -3437,19 +3657,22 @@
         <v>316</v>
       </c>
       <c r="D61" t="s">
+        <v>551</v>
+      </c>
+      <c r="E61" t="s">
         <v>317</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>824651</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>318</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>319</v>
       </c>
@@ -3460,19 +3683,22 @@
         <v>321</v>
       </c>
       <c r="D62" t="s">
+        <v>557</v>
+      </c>
+      <c r="E62" t="s">
         <v>322</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>824863</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>323</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>325</v>
       </c>
@@ -3483,19 +3709,22 @@
         <v>327</v>
       </c>
       <c r="D63" t="s">
+        <v>550</v>
+      </c>
+      <c r="E63" t="s">
         <v>328</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>825189</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>329</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>331</v>
       </c>
@@ -3506,19 +3735,22 @@
         <v>75</v>
       </c>
       <c r="D64" t="s">
+        <v>557</v>
+      </c>
+      <c r="E64" t="s">
         <v>333</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>828060</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>334</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>335</v>
       </c>
@@ -3529,19 +3761,22 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
+        <v>553</v>
+      </c>
+      <c r="E65" t="s">
         <v>337</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>825842</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>340</v>
       </c>
@@ -3552,19 +3787,22 @@
         <v>342</v>
       </c>
       <c r="D66" t="s">
+        <v>551</v>
+      </c>
+      <c r="E66" t="s">
         <v>343</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>827091</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>344</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>346</v>
       </c>
@@ -3575,19 +3813,22 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
+        <v>552</v>
+      </c>
+      <c r="E67" t="s">
         <v>348</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>827153</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>349</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>350</v>
       </c>
@@ -3598,19 +3839,22 @@
         <v>352</v>
       </c>
       <c r="D68" t="s">
+        <v>551</v>
+      </c>
+      <c r="E68" t="s">
         <v>353</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>827328</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>356</v>
       </c>
@@ -3621,19 +3865,22 @@
         <v>358</v>
       </c>
       <c r="D69" t="s">
+        <v>554</v>
+      </c>
+      <c r="E69" t="s">
         <v>359</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>827494</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>360</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>361</v>
       </c>
@@ -3644,19 +3891,22 @@
         <v>176</v>
       </c>
       <c r="D70" t="s">
+        <v>551</v>
+      </c>
+      <c r="E70" t="s">
         <v>363</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>827512</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>364</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>365</v>
       </c>
@@ -3667,19 +3917,22 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>556</v>
+      </c>
+      <c r="E71" t="s">
         <v>367</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>827637</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>368</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>369</v>
       </c>
@@ -3690,19 +3943,22 @@
         <v>371</v>
       </c>
       <c r="D72" t="s">
+        <v>551</v>
+      </c>
+      <c r="E72" t="s">
         <v>372</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>827690</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>373</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>375</v>
       </c>
@@ -3713,19 +3969,22 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>554</v>
+      </c>
+      <c r="E73" t="s">
         <v>377</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>827757</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>378</v>
       </c>
-      <c r="G73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>379</v>
       </c>
@@ -3736,19 +3995,22 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
+        <v>551</v>
+      </c>
+      <c r="E74" t="s">
         <v>381</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>828241</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>338</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>382</v>
       </c>
@@ -3759,19 +4021,22 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
+        <v>551</v>
+      </c>
+      <c r="E75" t="s">
         <v>384</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>828557</v>
       </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
       <c r="G75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>385</v>
       </c>
@@ -3782,19 +4047,22 @@
         <v>387</v>
       </c>
       <c r="D76" t="s">
+        <v>550</v>
+      </c>
+      <c r="E76" t="s">
         <v>388</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>828716</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>389</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>390</v>
       </c>
@@ -3805,19 +4073,22 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
+        <v>553</v>
+      </c>
+      <c r="E77" t="s">
         <v>392</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>828782</v>
       </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
       <c r="G77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>393</v>
       </c>
@@ -3828,19 +4099,22 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
+        <v>550</v>
+      </c>
+      <c r="E78" t="s">
         <v>395</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>828812</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>396</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>398</v>
       </c>
@@ -3851,19 +4125,22 @@
         <v>400</v>
       </c>
       <c r="D79" t="s">
+        <v>552</v>
+      </c>
+      <c r="E79" t="s">
         <v>401</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>828816</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>402</v>
       </c>
-      <c r="G79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>403</v>
       </c>
@@ -3874,19 +4151,22 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
+        <v>558</v>
+      </c>
+      <c r="E80" t="s">
         <v>405</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>828863</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>406</v>
       </c>
-      <c r="G80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>407</v>
       </c>
@@ -3897,19 +4177,22 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
+        <v>551</v>
+      </c>
+      <c r="E81" t="s">
         <v>409</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>828883</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>410</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>411</v>
       </c>
@@ -3920,19 +4203,22 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
+        <v>555</v>
+      </c>
+      <c r="E82" t="s">
         <v>413</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>828972</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>414</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -3943,19 +4229,22 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
+        <v>550</v>
+      </c>
+      <c r="E83" t="s">
         <v>417</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>829007</v>
       </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
       <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>418</v>
       </c>
@@ -3966,19 +4255,22 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
+        <v>555</v>
+      </c>
+      <c r="E84" t="s">
         <v>420</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>829993</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>421</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>423</v>
       </c>
@@ -3989,19 +4281,22 @@
         <v>425</v>
       </c>
       <c r="D85" t="s">
+        <v>551</v>
+      </c>
+      <c r="E85" t="s">
         <v>426</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>830160</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>427</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>429</v>
       </c>
@@ -4012,19 +4307,22 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
+        <v>555</v>
+      </c>
+      <c r="E86" t="s">
         <v>431</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>831904</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>432</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>433</v>
       </c>
@@ -4035,19 +4333,22 @@
         <v>435</v>
       </c>
       <c r="D87" t="s">
+        <v>555</v>
+      </c>
+      <c r="E87" t="s">
         <v>436</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>831809</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>437</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>438</v>
       </c>
@@ -4058,19 +4359,22 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
+        <v>555</v>
+      </c>
+      <c r="E88" t="s">
         <v>440</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>830485</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>441</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>442</v>
       </c>
@@ -4081,19 +4385,22 @@
         <v>444</v>
       </c>
       <c r="D89" t="s">
+        <v>555</v>
+      </c>
+      <c r="E89" t="s">
         <v>445</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>830702</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>446</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>447</v>
       </c>
@@ -4104,19 +4411,22 @@
         <v>449</v>
       </c>
       <c r="D90" t="s">
+        <v>554</v>
+      </c>
+      <c r="E90" t="s">
         <v>450</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>830984</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>451</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -4127,16 +4437,19 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
+        <v>555</v>
+      </c>
+      <c r="E91" t="s">
         <v>454</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>831112</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>456</v>
       </c>
@@ -4147,19 +4460,22 @@
         <v>458</v>
       </c>
       <c r="D92" t="s">
+        <v>551</v>
+      </c>
+      <c r="E92" t="s">
         <v>459</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>831171</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>460</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>462</v>
       </c>
@@ -4170,19 +4486,22 @@
         <v>464</v>
       </c>
       <c r="D93" t="s">
+        <v>555</v>
+      </c>
+      <c r="E93" t="s">
         <v>465</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>831510</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>466</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>468</v>
       </c>
@@ -4193,19 +4512,22 @@
         <v>470</v>
       </c>
       <c r="D94" t="s">
+        <v>550</v>
+      </c>
+      <c r="E94" t="s">
         <v>471</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>831569</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>472</v>
       </c>
-      <c r="G94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>473</v>
       </c>
@@ -4216,19 +4538,22 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E95" t="s">
         <v>475</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>832340</v>
       </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
       <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>477</v>
       </c>
@@ -4239,19 +4564,22 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
+        <v>550</v>
+      </c>
+      <c r="E96" t="s">
         <v>479</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>832359</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>480</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>482</v>
       </c>
@@ -4262,19 +4590,22 @@
         <v>484</v>
       </c>
       <c r="D97" t="s">
+        <v>551</v>
+      </c>
+      <c r="E97" t="s">
         <v>485</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>833946</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>486</v>
       </c>
-      <c r="G97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>487</v>
       </c>
@@ -4285,19 +4616,22 @@
         <v>489</v>
       </c>
       <c r="D98" t="s">
+        <v>554</v>
+      </c>
+      <c r="E98" t="s">
         <v>490</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>833947</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>491</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>492</v>
       </c>
@@ -4308,19 +4642,22 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
+        <v>550</v>
+      </c>
+      <c r="E99" t="s">
         <v>494</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>834350</v>
       </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
       <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>495</v>
       </c>
@@ -4331,19 +4668,22 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>550</v>
+      </c>
+      <c r="E100" t="s">
         <v>497</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>834483</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>498</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>499</v>
       </c>
@@ -4354,19 +4694,22 @@
         <v>501</v>
       </c>
       <c r="D101" t="s">
+        <v>555</v>
+      </c>
+      <c r="E101" t="s">
         <v>502</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>834706</v>
       </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
       <c r="G101" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>503</v>
       </c>
@@ -4377,19 +4720,22 @@
         <v>176</v>
       </c>
       <c r="D102" t="s">
+        <v>551</v>
+      </c>
+      <c r="E102" t="s">
         <v>505</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>834718</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>506</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>507</v>
       </c>
@@ -4400,19 +4746,22 @@
         <v>509</v>
       </c>
       <c r="D103" t="s">
+        <v>554</v>
+      </c>
+      <c r="E103" t="s">
         <v>510</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>834730</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>511</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>512</v>
       </c>
@@ -4423,19 +4772,22 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>551</v>
+      </c>
+      <c r="E104" t="s">
         <v>514</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>834798</v>
       </c>
-      <c r="F104" t="s">
-        <v>9</v>
-      </c>
       <c r="G104" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>515</v>
       </c>
@@ -4446,19 +4798,22 @@
         <v>75</v>
       </c>
       <c r="D105" t="s">
+        <v>555</v>
+      </c>
+      <c r="E105" t="s">
         <v>517</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>835046</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>518</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>520</v>
       </c>
@@ -4469,19 +4824,22 @@
         <v>522</v>
       </c>
       <c r="D106" t="s">
+        <v>551</v>
+      </c>
+      <c r="E106" t="s">
         <v>523</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>835217</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>524</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>526</v>
       </c>
@@ -4492,16 +4850,19 @@
         <v>528</v>
       </c>
       <c r="D107" t="s">
+        <v>550</v>
+      </c>
+      <c r="E107" t="s">
         <v>529</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>835297</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>531</v>
       </c>
@@ -4512,19 +4873,22 @@
         <v>533</v>
       </c>
       <c r="D108" t="s">
+        <v>551</v>
+      </c>
+      <c r="E108" t="s">
         <v>534</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>835435</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>535</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>536</v>
       </c>
@@ -4535,19 +4899,22 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>550</v>
+      </c>
+      <c r="E109" t="s">
         <v>538</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>835804</v>
       </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
       <c r="G109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>539</v>
       </c>
@@ -4558,19 +4925,22 @@
         <v>93</v>
       </c>
       <c r="D110" t="s">
+        <v>555</v>
+      </c>
+      <c r="E110" t="s">
         <v>541</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>835956</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>542</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>543</v>
       </c>
@@ -4581,15 +4951,18 @@
         <v>545</v>
       </c>
       <c r="D111" t="s">
+        <v>555</v>
+      </c>
+      <c r="E111" t="s">
         <v>546</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>836242</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>547</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>548</v>
       </c>
     </row>
